--- a/STD-sylius.xlsx
+++ b/STD-sylius.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bk-pc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0C8365-D32A-491F-A5C0-3BE2203C6842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408380BD-BD07-4ECF-9FEB-CA6148C1116A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="808" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="808" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alerts list" sheetId="8" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="212">
   <si>
     <t>Environment</t>
   </si>
@@ -348,9 +348,6 @@
     <t>clear cart</t>
   </si>
   <si>
-    <t>apply coupon</t>
-  </si>
-  <si>
     <t>update cart</t>
   </si>
   <si>
@@ -373,9 +370,6 @@
   </si>
   <si>
     <t xml:space="preserve">In "QTY" set quantity number to "1" </t>
-  </si>
-  <si>
-    <t>add to cart unavilale quantity</t>
   </si>
   <si>
     <t>data</t>
@@ -590,9 +584,6 @@
     <t>Choose Category1-&gt;Category2</t>
   </si>
   <si>
-    <t>Apply coupon tst378tst(-10%)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Price is updated </t>
   </si>
   <si>
@@ -672,6 +663,33 @@
   </si>
   <si>
     <t>Choose Quantity(if avilable)</t>
+  </si>
+  <si>
+    <t>apply valid coupon</t>
+  </si>
+  <si>
+    <t>apply invalid coupon</t>
+  </si>
+  <si>
+    <t>Apply coupon "test"</t>
+  </si>
+  <si>
+    <t>nitification "Coupon code is invalid."</t>
+  </si>
+  <si>
+    <t>Apply coupon test8Dselenium(-10%)</t>
+  </si>
+  <si>
+    <t>add to cart unavilale quantity-error check</t>
+  </si>
+  <si>
+    <t>add to cart unavilale quantity-total price</t>
+  </si>
+  <si>
+    <t>The total price didn’t change</t>
+  </si>
+  <si>
+    <t>cart update</t>
   </si>
 </sst>
 </file>
@@ -702,7 +720,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -792,6 +810,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -858,7 +882,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -901,12 +925,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -931,30 +949,6 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -974,12 +968,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -987,7 +975,40 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1283,7 +1304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E33EB8-2F1A-45FA-AB06-997574317A40}">
   <dimension ref="A2:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1297,229 +1318,229 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="12" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="28">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="C3" s="8" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="30">
-        <v>1</v>
-      </c>
-      <c r="B3" s="27" t="s">
+      <c r="D3" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="8" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="28">
+        <v>2</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="30">
-        <v>2</v>
-      </c>
-      <c r="B4" s="27" t="s">
+      <c r="D4" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="8" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="28">
+        <v>3</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="30">
-        <v>3</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="8" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="28">
+        <v>4</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="30">
-        <v>4</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="C6" s="8" t="s">
+    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="28">
+        <v>5</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D7" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="30">
-        <v>5</v>
-      </c>
-      <c r="B7" s="31" t="s">
+    <row r="8" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="28">
+        <v>6</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="30">
-        <v>6</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="8" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="28">
+        <v>7</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D8" s="10" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="28">
+        <v>8</v>
+      </c>
+      <c r="B10" s="29" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="30">
-        <v>7</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D10" s="10" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="30">
-        <v>8</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>158</v>
-      </c>
-    </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="30"/>
-      <c r="B11" s="27"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="30"/>
-      <c r="B12" s="27"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="30"/>
-      <c r="B13" s="27"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="30"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="18"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="30"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="18"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="30"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="30"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="30"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="30"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="30"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="30"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="30"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -1532,10 +1553,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1551,44 +1572,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H1" s="51" t="s">
-        <v>202</v>
+      <c r="H1" s="39" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" s="50">
+      <c r="D3" s="38">
         <v>1</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -1597,10 +1618,10 @@
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="50">
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="38">
         <v>2</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -1609,10 +1630,10 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="50">
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="38">
         <v>3</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -1621,10 +1642,10 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="50">
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="38">
         <v>4</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -1633,24 +1654,24 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" s="27">
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="51">
         <v>5</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
       <c r="C8" s="47"/>
-      <c r="D8" s="27">
+      <c r="D8" s="51">
         <v>6</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -1659,10 +1680,10 @@
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="47"/>
-      <c r="D9" s="27">
+      <c r="D9" s="51">
         <v>7</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -1671,24 +1692,24 @@
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="48"/>
-      <c r="D10" s="27">
+      <c r="D10" s="51">
         <v>8</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" s="27">
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="51">
         <v>9</v>
       </c>
       <c r="E11" s="8" t="s">
@@ -1697,10 +1718,10 @@
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="20"/>
-      <c r="D12" s="50">
+      <c r="D12" s="38">
         <v>10</v>
       </c>
       <c r="E12" s="8" t="s">
@@ -1709,10 +1730,10 @@
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="33"/>
-      <c r="B13" s="34"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="21"/>
-      <c r="D13" s="50">
+      <c r="D13" s="38">
         <v>11</v>
       </c>
       <c r="E13" s="8" t="s">
@@ -1723,7 +1744,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="33"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="11"/>
       <c r="C14" s="15"/>
       <c r="D14" s="14"/>
@@ -1731,20 +1752,20 @@
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="33"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="28"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="33"/>
-      <c r="B16" s="37" t="s">
-        <v>160</v>
+      <c r="A16" s="42"/>
+      <c r="B16" s="46" t="s">
+        <v>158</v>
       </c>
       <c r="C16" s="15"/>
-      <c r="D16" s="27">
+      <c r="D16" s="51">
         <v>12</v>
       </c>
       <c r="E16" s="8" t="s">
@@ -1753,22 +1774,22 @@
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="33"/>
-      <c r="B17" s="37"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="15"/>
-      <c r="D17" s="27">
+      <c r="D17" s="51">
         <v>13</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="33"/>
-      <c r="B18" s="37"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="27">
+      <c r="D18" s="51">
         <v>14</v>
       </c>
       <c r="E18" s="8" t="s">
@@ -1777,31 +1798,31 @@
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="33"/>
-      <c r="B19" s="37"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="15"/>
       <c r="D19" s="14"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="33"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="28"/>
+      <c r="D20" s="26"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="33"/>
-      <c r="B21" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="D21" s="52">
-        <v>14</v>
+    <row r="21" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="42"/>
+      <c r="B21" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="51">
+        <v>15</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>80</v>
@@ -1809,25 +1830,25 @@
       <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="52">
-        <v>15</v>
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="51">
+        <v>16</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="52">
-        <v>16</v>
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="51">
+        <v>17</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>102</v>
@@ -1835,159 +1856,157 @@
       <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="50">
-        <v>17</v>
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="D24" s="51">
+        <v>18</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="50">
-        <v>18</v>
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="51">
+        <v>19</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>103</v>
+        <v>203</v>
       </c>
       <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="50">
-        <v>19</v>
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="51">
+        <v>20</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="33"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="50">
-        <v>20</v>
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="51">
+        <v>21</v>
       </c>
       <c r="E27" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="42"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="51">
+        <v>22</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="42"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="38">
+        <v>23</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="33"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="33"/>
-      <c r="B29" s="36" t="s">
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="42"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="42"/>
+      <c r="B31" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="49">
-        <v>21</v>
-      </c>
-      <c r="E29" s="8" t="s">
+      <c r="C31" s="14"/>
+      <c r="D31" s="37">
+        <v>24</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="33"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="49">
-        <v>22</v>
-      </c>
-      <c r="E30" s="8" t="s">
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="42"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="37">
+        <v>25</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F30" s="8"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="33"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-    </row>
-    <row r="32" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="33"/>
-      <c r="B32" s="32" t="s">
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="42"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="42"/>
+      <c r="B34" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="14">
-        <v>23</v>
-      </c>
-      <c r="E32" s="8" t="s">
+      <c r="C34" s="19"/>
+      <c r="D34" s="14">
+        <v>26</v>
+      </c>
+      <c r="E34" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F34" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="14">
-        <v>24</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="14">
-        <v>25</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
       <c r="C35" s="20"/>
       <c r="D35" s="14">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="33"/>
-      <c r="B36" s="33"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
       <c r="C36" s="20"/>
-      <c r="D36" s="14">
-        <v>27</v>
+      <c r="D36" s="40">
+        <v>28</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>130</v>
@@ -1997,52 +2016,81 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
       <c r="C37" s="20"/>
-      <c r="D37" s="14">
-        <v>28</v>
+      <c r="D37" s="40">
+        <v>29</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="33"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="14">
-        <v>29</v>
-      </c>
-      <c r="E38" t="s">
-        <v>135</v>
+      <c r="A38" s="42"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="40">
+        <v>30</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>128</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="34"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="40">
+        <v>31</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="42"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="40">
+        <v>32</v>
+      </c>
+      <c r="E40" t="s">
+        <v>133</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="43"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A3:A39"/>
+  <mergeCells count="10">
+    <mergeCell ref="A3:A41"/>
     <mergeCell ref="B3:B13"/>
     <mergeCell ref="C3:C6"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B34:B40"/>
+    <mergeCell ref="B31:B32"/>
     <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="B21:B29"/>
     <mergeCell ref="C7:C10"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2053,7 +2101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09FF29FE-4C4A-4C54-B037-6F39A5D60650}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
@@ -2080,25 +2128,25 @@
         <v>3</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="38">
+      <c r="A2" s="49">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="38"/>
+      <c r="A3" s="49"/>
       <c r="B3">
         <v>2</v>
       </c>
@@ -2110,7 +2158,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="38"/>
+      <c r="A4" s="49"/>
       <c r="B4">
         <v>3</v>
       </c>
@@ -2119,7 +2167,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="38"/>
+      <c r="A5" s="49"/>
       <c r="B5">
         <v>4</v>
       </c>
@@ -2127,7 +2175,7 @@
         <v>88</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -2138,21 +2186,21 @@
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="38">
+      <c r="A7" s="49">
         <v>2</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="38"/>
+      <c r="A8" s="49"/>
       <c r="B8">
         <v>2</v>
       </c>
@@ -2164,16 +2212,16 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="38"/>
+      <c r="A9" s="49"/>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="38"/>
+      <c r="A10" s="49"/>
       <c r="B10">
         <v>4</v>
       </c>
@@ -2192,21 +2240,21 @@
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="38">
+      <c r="A12" s="49">
         <v>3</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D12" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="38"/>
+      <c r="A13" s="49"/>
       <c r="B13">
         <v>2</v>
       </c>
@@ -2218,16 +2266,16 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="38"/>
+      <c r="A14" s="49"/>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="38"/>
+      <c r="A15" s="49"/>
       <c r="B15">
         <v>4</v>
       </c>
@@ -2246,21 +2294,21 @@
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="38">
+      <c r="A17" s="49">
         <v>4</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D17" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="38"/>
+      <c r="A18" s="49"/>
       <c r="B18">
         <v>2</v>
       </c>
@@ -2272,22 +2320,22 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="38"/>
+      <c r="A19" s="49"/>
       <c r="B19">
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="38"/>
+      <c r="A20" s="49"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="38"/>
+      <c r="A21" s="49"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
@@ -2297,21 +2345,21 @@
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="38">
+      <c r="A23" s="49">
         <v>5</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="38"/>
+      <c r="A24" s="49"/>
       <c r="B24">
         <v>2</v>
       </c>
@@ -2323,25 +2371,25 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="38"/>
+      <c r="A25" s="49"/>
       <c r="B25">
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="38"/>
+      <c r="A26" s="49"/>
       <c r="B26">
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="38"/>
+      <c r="A27" s="49"/>
       <c r="B27">
         <v>5</v>
       </c>
@@ -2360,21 +2408,21 @@
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="38">
+      <c r="A29" s="49">
         <v>6</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D29" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="38"/>
+      <c r="A30" s="49"/>
       <c r="B30">
         <v>2</v>
       </c>
@@ -2386,7 +2434,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="38"/>
+      <c r="A31" s="49"/>
       <c r="B31">
         <v>3</v>
       </c>
@@ -2395,7 +2443,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="38"/>
+      <c r="A32" s="49"/>
       <c r="B32">
         <v>4</v>
       </c>
@@ -2404,7 +2452,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="38"/>
+      <c r="A33" s="49"/>
       <c r="B33">
         <v>5</v>
       </c>
@@ -2423,21 +2471,21 @@
       <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="38">
+      <c r="A35" s="49">
         <v>7</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D35" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="38"/>
+      <c r="A36" s="49"/>
       <c r="B36">
         <v>2</v>
       </c>
@@ -2449,7 +2497,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="38"/>
+      <c r="A37" s="49"/>
       <c r="B37">
         <v>3</v>
       </c>
@@ -2458,7 +2506,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="38"/>
+      <c r="A38" s="49"/>
       <c r="B38">
         <v>4</v>
       </c>
@@ -2467,7 +2515,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="38"/>
+      <c r="A39" s="49"/>
       <c r="B39">
         <v>5</v>
       </c>
@@ -2486,21 +2534,21 @@
       <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="38">
+      <c r="A41" s="49">
         <v>8</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D41" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="38"/>
+      <c r="A42" s="49"/>
       <c r="B42">
         <v>2</v>
       </c>
@@ -2512,25 +2560,25 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="38"/>
+      <c r="A43" s="49"/>
       <c r="B43">
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="38"/>
+      <c r="A44" s="49"/>
       <c r="B44">
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="38"/>
+      <c r="A45" s="49"/>
       <c r="B45">
         <v>5</v>
       </c>
@@ -2542,12 +2590,12 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="38"/>
+      <c r="A46" s="49"/>
       <c r="B46">
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D46" t="s">
         <v>84</v>
@@ -2561,7 +2609,7 @@
       <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="38">
+      <c r="A48" s="49">
         <v>9</v>
       </c>
       <c r="B48">
@@ -2571,23 +2619,23 @@
         <v>83</v>
       </c>
       <c r="D48" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="38"/>
+      <c r="A49" s="49"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="38"/>
+      <c r="A50" s="49"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="38"/>
+      <c r="A51" s="49"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="38"/>
+      <c r="A52" s="49"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="38"/>
+      <c r="A53" s="49"/>
       <c r="D53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
@@ -2598,21 +2646,21 @@
       <c r="E54" s="3"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="38">
+      <c r="A55" s="49">
         <v>10</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D55" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="38"/>
+      <c r="A56" s="49"/>
       <c r="B56">
         <v>2</v>
       </c>
@@ -2624,7 +2672,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="38"/>
+      <c r="A57" s="49"/>
       <c r="B57">
         <v>3</v>
       </c>
@@ -2636,7 +2684,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="38"/>
+      <c r="A58" s="49"/>
       <c r="B58">
         <v>4</v>
       </c>
@@ -2645,7 +2693,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="38"/>
+      <c r="A59" s="49"/>
       <c r="B59">
         <v>5</v>
       </c>
@@ -2653,11 +2701,11 @@
         <v>95</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="38"/>
+      <c r="A60" s="49"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
@@ -2667,21 +2715,21 @@
       <c r="E61" s="3"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="38">
+      <c r="A62" s="49">
         <v>11</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D62" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="38"/>
+      <c r="A63" s="49"/>
       <c r="B63">
         <v>2</v>
       </c>
@@ -2693,7 +2741,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="38"/>
+      <c r="A64" s="49"/>
       <c r="B64">
         <v>3</v>
       </c>
@@ -2705,7 +2753,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="38"/>
+      <c r="A65" s="49"/>
       <c r="B65">
         <v>4</v>
       </c>
@@ -2714,7 +2762,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="38"/>
+      <c r="A66" s="49"/>
       <c r="B66">
         <v>5</v>
       </c>
@@ -2755,7 +2803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65FF5777-D765-4828-924B-9D6A0BF1CC6B}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -2781,25 +2829,25 @@
         <v>3</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="38">
+      <c r="A2" s="49">
         <v>12</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="38"/>
+      <c r="A3" s="49"/>
       <c r="B3">
         <v>2</v>
       </c>
@@ -2811,7 +2859,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="38"/>
+      <c r="A4" s="49"/>
       <c r="B4">
         <v>3</v>
       </c>
@@ -2820,19 +2868,19 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="38"/>
+      <c r="A5" s="49"/>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="38"/>
+      <c r="A6" s="49"/>
       <c r="B6">
         <v>5</v>
       </c>
@@ -2844,7 +2892,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="29"/>
+      <c r="A7" s="27"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
@@ -2854,21 +2902,21 @@
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="38">
+      <c r="A9" s="49">
         <v>13</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="38"/>
+      <c r="A10" s="49"/>
       <c r="B10">
         <v>2</v>
       </c>
@@ -2880,7 +2928,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="38"/>
+      <c r="A11" s="49"/>
       <c r="B11">
         <v>3</v>
       </c>
@@ -2889,19 +2937,19 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="38"/>
+      <c r="A12" s="49"/>
       <c r="B12">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="38"/>
+      <c r="A13" s="49"/>
       <c r="B13">
         <v>5</v>
       </c>
@@ -2913,19 +2961,19 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="38"/>
+      <c r="A14" s="49"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="38"/>
+      <c r="A15" s="49"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="29"/>
+      <c r="A16" s="27"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="29"/>
+      <c r="A17" s="27"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="29"/>
+      <c r="A18" s="27"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
@@ -2935,21 +2983,21 @@
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="38">
+      <c r="A20" s="49">
         <v>14</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="38"/>
+      <c r="A21" s="49"/>
       <c r="B21">
         <v>2</v>
       </c>
@@ -2961,7 +3009,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="38"/>
+      <c r="A22" s="49"/>
       <c r="B22">
         <v>3</v>
       </c>
@@ -2970,7 +3018,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="38"/>
+      <c r="A23" s="49"/>
       <c r="B23">
         <v>4</v>
       </c>
@@ -2982,22 +3030,22 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="29"/>
+      <c r="A24" s="27"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="29"/>
+      <c r="A25" s="27"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="29"/>
+      <c r="A26" s="27"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="29"/>
+      <c r="A27" s="27"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="29"/>
+      <c r="A28" s="27"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="29"/>
+      <c r="A29" s="27"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
@@ -3017,10 +3065,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45F5064-241A-46C9-BE6D-13D387F62D91}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3044,11 +3092,11 @@
         <v>3</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="39">
+      <c r="A2" s="50">
         <v>15</v>
       </c>
       <c r="B2">
@@ -3059,40 +3107,40 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="39"/>
+      <c r="A3" s="50"/>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="39"/>
+      <c r="A4" s="50"/>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="39"/>
+      <c r="A5" s="50"/>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="39"/>
+      <c r="A6" s="50"/>
       <c r="B6">
         <v>5</v>
       </c>
@@ -3100,7 +3148,7 @@
         <v>34</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -3111,30 +3159,30 @@
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="39">
+      <c r="A8" s="50">
         <v>16</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="39"/>
+      <c r="A9" s="50"/>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="39"/>
+      <c r="A10" s="50"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -3145,30 +3193,30 @@
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="39">
+      <c r="A12" s="50">
         <v>17</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="39"/>
+      <c r="A13" s="50"/>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="39"/>
+      <c r="A14" s="50"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="39"/>
+      <c r="A15" s="50"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
@@ -3178,21 +3226,21 @@
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="39">
+      <c r="A17" s="50">
         <v>18</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D17" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="39"/>
+      <c r="A18" s="50"/>
       <c r="B18">
         <v>2</v>
       </c>
@@ -3204,46 +3252,46 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="39"/>
+      <c r="A19" s="50"/>
       <c r="B19">
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D19" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="39"/>
+      <c r="A20" s="50"/>
       <c r="B20">
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D20" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="39"/>
+      <c r="A21" s="50"/>
       <c r="B21">
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="39"/>
+      <c r="A22" s="50"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="39"/>
+      <c r="A23" s="50"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
@@ -3253,36 +3301,36 @@
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="39">
+      <c r="A25" s="50">
         <v>19</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D25" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="39"/>
+      <c r="A26" s="50"/>
       <c r="B26">
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="D26" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="39"/>
+      <c r="A27" s="50"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="39"/>
+      <c r="A28" s="50"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
@@ -3292,33 +3340,33 @@
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="39">
+      <c r="A30" s="50">
         <v>20</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D30" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="39"/>
+      <c r="A31" s="50"/>
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="D31" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="39"/>
+      <c r="A32" s="50"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
@@ -3328,23 +3376,81 @@
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="22"/>
+      <c r="A34" s="50">
+        <v>21</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="22"/>
+      <c r="A35" s="50"/>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>180</v>
+      </c>
+      <c r="D35" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="22"/>
+      <c r="A36" s="50"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="22"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="22"/>
-      <c r="D38" s="1"/>
+      <c r="A38" s="50">
+        <v>22</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>164</v>
+      </c>
+      <c r="D38" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="50"/>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>180</v>
+      </c>
+      <c r="D39" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="50"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A34:A36"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A25:A28"/>
@@ -3360,7 +3466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{807DBDF7-C589-43DE-B2AE-C373EF021942}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -3391,58 +3497,58 @@
         <v>3</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>21</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="50">
         <v>21</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B3" s="39"/>
+      <c r="B3" s="50"/>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="39"/>
+      <c r="B4" s="50"/>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B5" s="39"/>
+      <c r="B5" s="50"/>
       <c r="C5">
         <v>4</v>
       </c>
@@ -3464,51 +3570,51 @@
       <c r="A7">
         <v>22</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="50">
         <v>22</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B8" s="39"/>
+      <c r="B8" s="50"/>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B9" s="39"/>
+      <c r="B9" s="50"/>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" t="s">
         <v>122</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F9" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B10" s="39"/>
+      <c r="B10" s="50"/>
       <c r="C10">
         <v>4</v>
       </c>
@@ -3559,7 +3665,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="39">
+      <c r="A2" s="50">
         <v>23</v>
       </c>
       <c r="B2">
@@ -3569,11 +3675,11 @@
         <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="39"/>
+      <c r="A3" s="50"/>
       <c r="B3">
         <v>2</v>
       </c>
@@ -3581,35 +3687,35 @@
         <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="39"/>
+      <c r="A4" s="50"/>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="39"/>
+      <c r="A5" s="50"/>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="39"/>
+      <c r="A6" s="50"/>
       <c r="B6">
         <v>5</v>
       </c>
@@ -3617,11 +3723,11 @@
         <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="39"/>
+      <c r="A7" s="50"/>
       <c r="B7">
         <v>6</v>
       </c>
@@ -3629,11 +3735,11 @@
         <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="39"/>
+      <c r="A8" s="50"/>
       <c r="B8">
         <v>7</v>
       </c>
@@ -3645,7 +3751,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="39"/>
+      <c r="A9" s="50"/>
       <c r="B9">
         <v>8</v>
       </c>
@@ -3653,7 +3759,7 @@
         <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -3663,7 +3769,7 @@
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="39">
+      <c r="A11" s="50">
         <v>24</v>
       </c>
       <c r="B11">
@@ -3677,7 +3783,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="39"/>
+      <c r="A12" s="50"/>
       <c r="B12">
         <v>2</v>
       </c>
@@ -3689,7 +3795,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="39"/>
+      <c r="A13" s="50"/>
       <c r="B13">
         <v>3</v>
       </c>
@@ -3701,7 +3807,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="39"/>
+      <c r="A14" s="50"/>
       <c r="B14">
         <v>4</v>
       </c>
@@ -3710,7 +3816,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="39"/>
+      <c r="A15" s="50"/>
       <c r="B15">
         <v>5</v>
       </c>
@@ -3719,7 +3825,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="39"/>
+      <c r="A16" s="50"/>
       <c r="B16">
         <v>6</v>
       </c>
@@ -3731,7 +3837,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="39"/>
+      <c r="A17" s="50"/>
       <c r="B17">
         <v>7</v>
       </c>
@@ -3743,7 +3849,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="39"/>
+      <c r="A18" s="50"/>
       <c r="B18">
         <v>8</v>
       </c>
@@ -3751,11 +3857,11 @@
         <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="39"/>
+      <c r="A19" s="50"/>
       <c r="B19">
         <v>9</v>
       </c>
@@ -3770,7 +3876,7 @@
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="39">
+      <c r="A21" s="50">
         <v>25</v>
       </c>
       <c r="B21">
@@ -3784,16 +3890,16 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="39"/>
+      <c r="A22" s="50"/>
       <c r="B22">
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="39"/>
+      <c r="A23" s="50"/>
       <c r="B23">
         <v>3</v>
       </c>
@@ -3802,7 +3908,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="39"/>
+      <c r="A24" s="50"/>
       <c r="B24">
         <v>4</v>
       </c>
@@ -3811,7 +3917,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="39"/>
+      <c r="A25" s="50"/>
       <c r="B25">
         <v>5</v>
       </c>
@@ -3823,7 +3929,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="39"/>
+      <c r="A26" s="50"/>
       <c r="B26">
         <v>6</v>
       </c>
@@ -3832,7 +3938,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="39"/>
+      <c r="A27" s="50"/>
       <c r="B27">
         <v>7</v>
       </c>
@@ -3850,7 +3956,7 @@
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="39">
+      <c r="A29" s="50">
         <v>26</v>
       </c>
       <c r="B29">
@@ -3864,7 +3970,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="39"/>
+      <c r="A30" s="50"/>
       <c r="B30">
         <v>2</v>
       </c>
@@ -3873,7 +3979,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="39"/>
+      <c r="A31" s="50"/>
       <c r="B31">
         <v>3</v>
       </c>
@@ -3882,7 +3988,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="39"/>
+      <c r="A32" s="50"/>
       <c r="B32">
         <v>4</v>
       </c>
@@ -3891,7 +3997,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="39"/>
+      <c r="A33" s="50"/>
       <c r="B33">
         <v>5</v>
       </c>
